--- a/src/matching/Matching.Unit.Tests/Assets/Matching-DataSource-Small.xlsx
+++ b/src/matching/Matching.Unit.Tests/Assets/Matching-DataSource-Small.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojgo\source\repos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojgo\source\repos\goodtocode\analytics\src\matching\Matching.Unit.Tests\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6002A39C-273F-4593-A826-E2F30D96A1DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CCDEE7-DB28-49E2-8CC2-2D8E4C091CC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,6 +1336,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1638,7 +1646,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,12 +1689,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="39"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1720,6 +1735,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2042,15 +2058,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="72.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2068,7 +2093,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2092,7 +2117,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -2104,7 +2129,7 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -2220,7 +2245,7 @@
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B2" t="s">
@@ -2235,7 +2260,7 @@
       <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>231</v>
       </c>
       <c r="H2">
@@ -2262,7 +2287,7 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="T2">
@@ -2327,7 +2352,7 @@
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B3" t="s">
@@ -2422,7 +2447,7 @@
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B4" t="s">
@@ -2437,7 +2462,7 @@
       <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>235</v>
       </c>
       <c r="H4">
@@ -2455,7 +2480,7 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="4" t="s">
         <v>236</v>
       </c>
       <c r="P4">
@@ -2464,7 +2489,7 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="4" t="s">
         <v>237</v>
       </c>
       <c r="T4">
@@ -2526,7 +2551,7 @@
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B5" t="s">
@@ -2627,7 +2652,7 @@
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B6" t="s">
@@ -2642,7 +2667,7 @@
       <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>241</v>
       </c>
       <c r="H6">
@@ -2660,7 +2685,7 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>242</v>
       </c>
       <c r="P6">
@@ -2728,7 +2753,7 @@
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B7" t="s">
@@ -2823,7 +2848,7 @@
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B8" t="s">
@@ -2918,7 +2943,7 @@
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B9" t="s">
@@ -2933,7 +2958,7 @@
       <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H9">
@@ -2951,7 +2976,7 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="P9">
@@ -3019,7 +3044,7 @@
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B10" t="s">
@@ -3034,7 +3059,7 @@
       <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>248</v>
       </c>
       <c r="H10">
@@ -3052,7 +3077,7 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="4" t="s">
         <v>249</v>
       </c>
       <c r="P10">
@@ -3120,7 +3145,7 @@
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B11" t="s">
@@ -3135,7 +3160,7 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>251</v>
       </c>
       <c r="H11">
@@ -3153,7 +3178,7 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="P11">
@@ -3221,7 +3246,7 @@
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B12" t="s">
@@ -3236,7 +3261,7 @@
       <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>253</v>
       </c>
       <c r="H12">
@@ -3254,7 +3279,7 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="4" t="s">
         <v>254</v>
       </c>
       <c r="P12">
@@ -3322,7 +3347,7 @@
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B13" t="s">
@@ -3337,7 +3362,7 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H13">
@@ -3355,7 +3380,7 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="P13">
@@ -3364,7 +3389,7 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="T13">
@@ -3429,7 +3454,7 @@
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B14" t="s">
@@ -3444,7 +3469,7 @@
       <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>258</v>
       </c>
       <c r="H14">
@@ -3462,7 +3487,7 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="4" t="s">
         <v>85</v>
       </c>
       <c r="P14">
@@ -3471,7 +3496,7 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="T14">
@@ -3536,7 +3561,7 @@
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B15" t="s">
@@ -3551,7 +3576,7 @@
       <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>260</v>
       </c>
       <c r="H15">
@@ -3569,7 +3594,7 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="4" t="s">
         <v>89</v>
       </c>
       <c r="P15">
@@ -3637,7 +3662,7 @@
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B16" t="s">
@@ -3652,7 +3677,7 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>262</v>
       </c>
       <c r="H16">
@@ -3673,7 +3698,7 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="4" t="s">
         <v>264</v>
       </c>
       <c r="P16">
@@ -3741,7 +3766,7 @@
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B17" t="s">
@@ -3836,7 +3861,7 @@
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B18" t="s">
@@ -3931,7 +3956,7 @@
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B19" t="s">
@@ -3946,7 +3971,7 @@
       <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>268</v>
       </c>
       <c r="H19">
@@ -3964,7 +3989,7 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="4" t="s">
         <v>94</v>
       </c>
       <c r="P19">
@@ -4032,7 +4057,7 @@
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B20" t="s">
@@ -4047,7 +4072,7 @@
       <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H20">
@@ -4065,7 +4090,7 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="P20">
@@ -4074,7 +4099,7 @@
       <c r="R20">
         <v>0</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="4" t="s">
         <v>97</v>
       </c>
       <c r="T20">
@@ -4136,7 +4161,7 @@
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B21" t="s">
@@ -4151,7 +4176,7 @@
       <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>272</v>
       </c>
       <c r="H21">
@@ -4169,7 +4194,7 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="4" t="s">
         <v>99</v>
       </c>
       <c r="P21">
@@ -4178,7 +4203,7 @@
       <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="4" t="s">
         <v>100</v>
       </c>
       <c r="T21">
@@ -4243,7 +4268,7 @@
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B22" t="s">
@@ -4258,7 +4283,7 @@
       <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>274</v>
       </c>
       <c r="H22">
@@ -4276,7 +4301,7 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="4" t="s">
         <v>103</v>
       </c>
       <c r="P22">
@@ -4344,7 +4369,7 @@
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B23" t="s">
@@ -4359,7 +4384,7 @@
       <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H23">
@@ -4377,7 +4402,7 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="4" t="s">
         <v>105</v>
       </c>
       <c r="P23">
@@ -4445,7 +4470,7 @@
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B24" t="s">
@@ -4460,7 +4485,7 @@
       <c r="E24" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>278</v>
       </c>
       <c r="H24">
@@ -4478,7 +4503,7 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="4" t="s">
         <v>107</v>
       </c>
       <c r="P24">
@@ -4546,7 +4571,7 @@
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B25" t="s">
@@ -4561,7 +4586,7 @@
       <c r="E25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>280</v>
       </c>
       <c r="H25">
@@ -4579,7 +4604,7 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="4" t="s">
         <v>109</v>
       </c>
       <c r="P25">
@@ -4588,7 +4613,7 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="4" t="s">
         <v>110</v>
       </c>
       <c r="T25">
@@ -4650,7 +4675,7 @@
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B26" t="s">
@@ -4745,7 +4770,7 @@
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B27" t="s">
@@ -4760,7 +4785,7 @@
       <c r="E27" t="s">
         <v>58</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H27">
@@ -4778,7 +4803,7 @@
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="4" t="s">
         <v>113</v>
       </c>
       <c r="P27">
@@ -4787,7 +4812,7 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="4" t="s">
         <v>114</v>
       </c>
       <c r="T27">
@@ -4852,7 +4877,7 @@
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B28" t="s">
@@ -4867,7 +4892,7 @@
       <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>285</v>
       </c>
       <c r="H28">
@@ -4885,7 +4910,7 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="4" t="s">
         <v>117</v>
       </c>
       <c r="P28">
@@ -4894,7 +4919,7 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="4" t="s">
         <v>118</v>
       </c>
       <c r="T28">
@@ -4956,7 +4981,7 @@
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B29" t="s">
@@ -4971,7 +4996,7 @@
       <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>287</v>
       </c>
       <c r="H29">
@@ -4989,7 +5014,7 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="4" t="s">
         <v>120</v>
       </c>
       <c r="P29">
@@ -4998,7 +5023,7 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="4" t="s">
         <v>121</v>
       </c>
       <c r="T29">
@@ -5063,7 +5088,7 @@
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B30" t="s">
@@ -5078,7 +5103,7 @@
       <c r="E30" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>289</v>
       </c>
       <c r="H30">
@@ -5096,7 +5121,7 @@
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="4" t="s">
         <v>124</v>
       </c>
       <c r="P30">
@@ -5105,7 +5130,7 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="4" t="s">
         <v>125</v>
       </c>
       <c r="T30">
@@ -5170,7 +5195,7 @@
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B31" t="s">
@@ -5185,7 +5210,7 @@
       <c r="E31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>292</v>
       </c>
       <c r="H31">
@@ -5203,7 +5228,7 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="4" t="s">
         <v>127</v>
       </c>
       <c r="P31">
@@ -5271,7 +5296,7 @@
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B32" t="s">
@@ -5372,7 +5397,7 @@
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B33" t="s">
@@ -5467,7 +5492,7 @@
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B34" t="s">
@@ -5482,7 +5507,7 @@
       <c r="E34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>297</v>
       </c>
       <c r="H34">
@@ -5500,7 +5525,7 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="4" t="s">
         <v>130</v>
       </c>
       <c r="P34">
@@ -5509,7 +5534,7 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="4" t="s">
         <v>131</v>
       </c>
       <c r="T34">
@@ -5574,7 +5599,7 @@
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B35" t="s">
@@ -5589,7 +5614,7 @@
       <c r="E35" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3" t="s">
         <v>299</v>
       </c>
       <c r="H35">
@@ -5607,7 +5632,7 @@
       <c r="N35">
         <v>0</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="4" t="s">
         <v>134</v>
       </c>
       <c r="P35">
@@ -5616,7 +5641,7 @@
       <c r="R35">
         <v>0</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="4" t="s">
         <v>300</v>
       </c>
       <c r="T35">
@@ -5681,7 +5706,7 @@
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>301</v>
       </c>
       <c r="B36" t="s">
@@ -5696,7 +5721,7 @@
       <c r="E36" t="s">
         <v>58</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>302</v>
       </c>
       <c r="H36">
@@ -5720,7 +5745,7 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="4" t="s">
         <v>137</v>
       </c>
       <c r="T36">
@@ -5785,7 +5810,7 @@
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B37" t="s">
@@ -5800,7 +5825,7 @@
       <c r="E37" t="s">
         <v>58</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>304</v>
       </c>
       <c r="H37">
@@ -5818,7 +5843,7 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="4" t="s">
         <v>140</v>
       </c>
       <c r="P37">
@@ -5886,7 +5911,7 @@
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B38" t="s">
@@ -5901,7 +5926,7 @@
       <c r="E38" t="s">
         <v>58</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3" t="s">
         <v>306</v>
       </c>
       <c r="H38">
@@ -5925,7 +5950,7 @@
       <c r="R38">
         <v>0</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="4" t="s">
         <v>142</v>
       </c>
       <c r="T38">
@@ -5987,7 +6012,7 @@
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B39" t="s">
@@ -6088,7 +6113,7 @@
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B40" t="s">
@@ -6103,7 +6128,7 @@
       <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>310</v>
       </c>
       <c r="H40">
@@ -6121,7 +6146,7 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="4" t="s">
         <v>144</v>
       </c>
       <c r="P40">
@@ -6189,7 +6214,7 @@
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B41" t="s">
@@ -6204,7 +6229,7 @@
       <c r="E41" t="s">
         <v>58</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3" t="s">
         <v>312</v>
       </c>
       <c r="H41">
@@ -6222,7 +6247,7 @@
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="4" t="s">
         <v>146</v>
       </c>
       <c r="P41">
@@ -6231,7 +6256,7 @@
       <c r="R41">
         <v>0</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="4" t="s">
         <v>147</v>
       </c>
       <c r="T41">
@@ -6293,7 +6318,7 @@
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B42" t="s">
@@ -6308,7 +6333,7 @@
       <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>314</v>
       </c>
       <c r="H42">
@@ -6326,7 +6351,7 @@
       <c r="N42">
         <v>0</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="4" t="s">
         <v>149</v>
       </c>
       <c r="P42">
@@ -6394,7 +6419,7 @@
       </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B43" t="s">
@@ -6409,7 +6434,7 @@
       <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>316</v>
       </c>
       <c r="H43">
@@ -6427,7 +6452,7 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="4" t="s">
         <v>151</v>
       </c>
       <c r="P43">
@@ -6436,7 +6461,7 @@
       <c r="R43">
         <v>0</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="4" t="s">
         <v>152</v>
       </c>
       <c r="T43">
@@ -6501,7 +6526,7 @@
       </c>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B44" t="s">
@@ -6516,7 +6541,7 @@
       <c r="E44" t="s">
         <v>58</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>318</v>
       </c>
       <c r="H44">
@@ -6534,7 +6559,7 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="4" t="s">
         <v>155</v>
       </c>
       <c r="P44">
@@ -6543,7 +6568,7 @@
       <c r="R44">
         <v>0</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="4" t="s">
         <v>156</v>
       </c>
       <c r="T44">
@@ -6608,7 +6633,7 @@
       </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B45" t="s">
@@ -6623,7 +6648,7 @@
       <c r="E45" t="s">
         <v>58</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H45">
@@ -6641,7 +6666,7 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="4" t="s">
         <v>159</v>
       </c>
       <c r="P45">
@@ -6709,7 +6734,7 @@
       </c>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B46" t="s">
@@ -6804,7 +6829,7 @@
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B47" t="s">
@@ -6819,7 +6844,7 @@
       <c r="E47" t="s">
         <v>58</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>323</v>
       </c>
       <c r="H47">
@@ -6837,7 +6862,7 @@
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="4" t="s">
         <v>163</v>
       </c>
       <c r="P47">
@@ -6905,7 +6930,7 @@
       </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B48" t="s">
@@ -7000,7 +7025,7 @@
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B49" t="s">
@@ -7015,7 +7040,7 @@
       <c r="E49" t="s">
         <v>58</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>326</v>
       </c>
       <c r="H49">
@@ -7033,7 +7058,7 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="4" t="s">
         <v>327</v>
       </c>
       <c r="P49">
@@ -7101,7 +7126,7 @@
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B50" t="s">
@@ -7196,7 +7221,7 @@
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B51" t="s">
@@ -7211,7 +7236,7 @@
       <c r="E51" t="s">
         <v>58</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>330</v>
       </c>
       <c r="H51">
@@ -7229,7 +7254,7 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="4" t="s">
         <v>169</v>
       </c>
       <c r="P51">
@@ -7297,7 +7322,7 @@
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>331</v>
       </c>
       <c r="B52" t="s">
@@ -7312,7 +7337,7 @@
       <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>332</v>
       </c>
       <c r="H52">
@@ -7330,7 +7355,7 @@
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="4" t="s">
         <v>171</v>
       </c>
       <c r="P52">
@@ -7339,7 +7364,7 @@
       <c r="R52">
         <v>0</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52" s="4" t="s">
         <v>333</v>
       </c>
       <c r="T52">
@@ -7404,7 +7429,7 @@
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B53" t="s">
@@ -7419,7 +7444,7 @@
       <c r="E53" t="s">
         <v>58</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>335</v>
       </c>
       <c r="H53">
@@ -7437,7 +7462,7 @@
       <c r="N53">
         <v>0</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="4" t="s">
         <v>174</v>
       </c>
       <c r="P53">
@@ -7446,7 +7471,7 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="4" t="s">
         <v>175</v>
       </c>
       <c r="T53">
@@ -7511,7 +7536,7 @@
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C54">
@@ -7597,7 +7622,7 @@
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B55" t="s">
@@ -7612,7 +7637,7 @@
       <c r="E55" t="s">
         <v>58</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>338</v>
       </c>
       <c r="H55">
@@ -7630,7 +7655,7 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="4" t="s">
         <v>180</v>
       </c>
       <c r="P55">
@@ -7639,7 +7664,7 @@
       <c r="R55">
         <v>0</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="4" t="s">
         <v>181</v>
       </c>
       <c r="T55">
@@ -7704,7 +7729,7 @@
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B56" t="s">
@@ -7719,7 +7744,7 @@
       <c r="E56" t="s">
         <v>58</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3" t="s">
         <v>340</v>
       </c>
       <c r="H56">
@@ -7737,7 +7762,7 @@
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="4" t="s">
         <v>184</v>
       </c>
       <c r="P56">
@@ -7746,7 +7771,7 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="4" t="s">
         <v>185</v>
       </c>
       <c r="T56">
@@ -7808,7 +7833,7 @@
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>341</v>
       </c>
       <c r="B57" t="s">
@@ -7909,7 +7934,7 @@
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B58" t="s">
@@ -7924,7 +7949,7 @@
       <c r="E58" t="s">
         <v>58</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3" t="s">
         <v>344</v>
       </c>
       <c r="H58">
@@ -7942,7 +7967,7 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="4" t="s">
         <v>187</v>
       </c>
       <c r="P58">
@@ -8010,7 +8035,7 @@
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B59" t="s">
@@ -8105,7 +8130,7 @@
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B60" t="s">
@@ -8120,7 +8145,7 @@
       <c r="E60" t="s">
         <v>58</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>347</v>
       </c>
       <c r="H60">
@@ -8141,7 +8166,7 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="4" t="s">
         <v>190</v>
       </c>
       <c r="P60">
@@ -8209,7 +8234,7 @@
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B61" t="s">
@@ -8224,7 +8249,7 @@
       <c r="E61" t="s">
         <v>58</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>350</v>
       </c>
       <c r="H61">
@@ -8242,7 +8267,7 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="4" t="s">
         <v>351</v>
       </c>
       <c r="P61">
@@ -8251,7 +8276,7 @@
       <c r="R61">
         <v>0</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S61" s="4" t="s">
         <v>352</v>
       </c>
       <c r="T61">
@@ -8316,7 +8341,7 @@
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B62" t="s">
@@ -8331,7 +8356,7 @@
       <c r="E62" t="s">
         <v>58</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>355</v>
       </c>
       <c r="H62">
@@ -8349,7 +8374,7 @@
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="4" t="s">
         <v>193</v>
       </c>
       <c r="P62">
@@ -8358,7 +8383,7 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="S62" t="s">
+      <c r="S62" s="4" t="s">
         <v>194</v>
       </c>
       <c r="T62">
@@ -8423,7 +8448,7 @@
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B63" t="s">
@@ -8518,7 +8543,7 @@
       </c>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B64" t="s">
@@ -8619,7 +8644,7 @@
       </c>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>359</v>
       </c>
       <c r="B65" t="s">
@@ -8634,7 +8659,7 @@
       <c r="E65" t="s">
         <v>58</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>335</v>
       </c>
       <c r="H65">
@@ -8652,7 +8677,7 @@
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="4" t="s">
         <v>174</v>
       </c>
       <c r="P65">
@@ -8661,7 +8686,7 @@
       <c r="R65">
         <v>0</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S65" s="4" t="s">
         <v>175</v>
       </c>
       <c r="T65">
@@ -8726,7 +8751,7 @@
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B66" t="s">
@@ -8741,7 +8766,7 @@
       <c r="E66" t="s">
         <v>58</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>361</v>
       </c>
       <c r="H66">
@@ -8759,7 +8784,7 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="4" t="s">
         <v>199</v>
       </c>
       <c r="P66">
@@ -8768,7 +8793,7 @@
       <c r="R66">
         <v>0</v>
       </c>
-      <c r="S66" t="s">
+      <c r="S66" s="4" t="s">
         <v>200</v>
       </c>
       <c r="T66">
@@ -8833,7 +8858,7 @@
       </c>
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="7" t="s">
         <v>362</v>
       </c>
       <c r="B67" t="s">
@@ -8848,7 +8873,7 @@
       <c r="E67" t="s">
         <v>58</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>363</v>
       </c>
       <c r="H67">
@@ -8866,7 +8891,7 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="6" t="s">
         <v>203</v>
       </c>
       <c r="P67">
@@ -8934,7 +8959,7 @@
       </c>
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="7" t="s">
         <v>364</v>
       </c>
       <c r="B68" t="s">
@@ -8949,7 +8974,7 @@
       <c r="E68" t="s">
         <v>58</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>365</v>
       </c>
       <c r="H68">
@@ -8967,7 +8992,7 @@
       <c r="N68">
         <v>0</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="4" t="s">
         <v>205</v>
       </c>
       <c r="P68">
@@ -8976,7 +9001,7 @@
       <c r="R68">
         <v>0</v>
       </c>
-      <c r="S68" t="s">
+      <c r="S68" s="6" t="s">
         <v>206</v>
       </c>
       <c r="T68">
@@ -9041,7 +9066,7 @@
       </c>
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B69" t="s">
@@ -9142,7 +9167,7 @@
       </c>
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B70" t="s">
@@ -9243,7 +9268,7 @@
       </c>
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B71" t="s">
@@ -9338,7 +9363,7 @@
       </c>
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B72" t="s">
@@ -9353,7 +9378,7 @@
       <c r="E72" t="s">
         <v>58</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>372</v>
       </c>
       <c r="H72">
@@ -9371,7 +9396,7 @@
       <c r="N72">
         <v>0</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="4" t="s">
         <v>210</v>
       </c>
       <c r="P72">
@@ -9380,7 +9405,7 @@
       <c r="R72">
         <v>0</v>
       </c>
-      <c r="S72" t="s">
+      <c r="S72" s="4" t="s">
         <v>146</v>
       </c>
       <c r="T72">
@@ -9445,7 +9470,7 @@
       </c>
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>373</v>
       </c>
       <c r="B73" t="s">
@@ -9460,7 +9485,7 @@
       <c r="E73" t="s">
         <v>58</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3" t="s">
         <v>374</v>
       </c>
       <c r="H73">
@@ -9478,7 +9503,7 @@
       <c r="N73">
         <v>0</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="4" t="s">
         <v>211</v>
       </c>
       <c r="P73">
@@ -9546,7 +9571,7 @@
       </c>
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B74" t="s">
@@ -9561,7 +9586,7 @@
       <c r="E74" t="s">
         <v>58</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3" t="s">
         <v>376</v>
       </c>
       <c r="H74">
@@ -9579,7 +9604,7 @@
       <c r="N74">
         <v>0</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="4" t="s">
         <v>214</v>
       </c>
       <c r="P74">
@@ -9588,7 +9613,7 @@
       <c r="R74">
         <v>0</v>
       </c>
-      <c r="S74" t="s">
+      <c r="S74" s="4" t="s">
         <v>215</v>
       </c>
       <c r="T74">
@@ -9653,7 +9678,7 @@
       </c>
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B75" t="s">
@@ -9668,7 +9693,7 @@
       <c r="E75" t="s">
         <v>58</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3" t="s">
         <v>378</v>
       </c>
       <c r="H75">
@@ -9686,7 +9711,7 @@
       <c r="N75">
         <v>0</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="4" t="s">
         <v>379</v>
       </c>
       <c r="P75">
@@ -9695,7 +9720,7 @@
       <c r="R75">
         <v>0</v>
       </c>
-      <c r="S75" t="s">
+      <c r="S75" s="4" t="s">
         <v>218</v>
       </c>
       <c r="T75">
@@ -9760,7 +9785,7 @@
       </c>
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B76" t="s">
@@ -9775,7 +9800,7 @@
       <c r="E76" t="s">
         <v>58</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3" t="s">
         <v>381</v>
       </c>
       <c r="H76">
@@ -9793,7 +9818,7 @@
       <c r="N76">
         <v>0</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="4" t="s">
         <v>221</v>
       </c>
       <c r="P76">
@@ -9802,7 +9827,7 @@
       <c r="R76">
         <v>0</v>
       </c>
-      <c r="S76" t="s">
+      <c r="S76" s="4" t="s">
         <v>222</v>
       </c>
       <c r="T76">
@@ -9864,7 +9889,7 @@
       </c>
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B77" t="s">
@@ -9965,7 +9990,7 @@
       </c>
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B78" t="s">
@@ -10060,7 +10085,7 @@
       </c>
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B79" t="s">
@@ -10075,7 +10100,7 @@
       <c r="E79" t="s">
         <v>58</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3" t="s">
         <v>386</v>
       </c>
       <c r="H79">
@@ -10093,7 +10118,7 @@
       <c r="N79">
         <v>0</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="4" t="s">
         <v>225</v>
       </c>
       <c r="P79">
@@ -10161,7 +10186,7 @@
       </c>
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B80" t="s">
@@ -10176,7 +10201,7 @@
       <c r="E80" t="s">
         <v>58</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3" t="s">
         <v>388</v>
       </c>
       <c r="H80">
@@ -10197,7 +10222,7 @@
       <c r="N80">
         <v>0</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="4" t="s">
         <v>390</v>
       </c>
       <c r="P80">
@@ -10206,7 +10231,7 @@
       <c r="R80">
         <v>0</v>
       </c>
-      <c r="S80" t="s">
+      <c r="S80" s="4" t="s">
         <v>227</v>
       </c>
       <c r="T80">
@@ -10271,7 +10296,7 @@
       </c>
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>392</v>
       </c>
       <c r="B81" t="s">
@@ -10366,6 +10391,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A68" r:id="rId1" xr:uid="{46F73156-A4FA-42C6-A5F5-9BE9F3441281}"/>
+    <hyperlink ref="A67" r:id="rId2" xr:uid="{AA30D3C1-B1EC-434C-BCB0-4DD1EE048CF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>